--- a/data/dataPaper-I-in/arphified/Nemertea.xlsx
+++ b/data/dataPaper-I-in/arphified/Nemertea.xlsx
@@ -699,76 +699,76 @@
     <t>${catalogNumber}</t>
   </si>
   <si>
+    <t>${recordedBy}</t>
+  </si>
+  <si>
+    <t>${individualCount}</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>${taxonName}</t>
+  </si>
+  <si>
+    <t>!references.ref</t>
+  </si>
+  <si>
+    <t>iNaturalist:${iNaturalistTaxonId}</t>
+  </si>
+  <si>
+    <t>${scientificName}</t>
+  </si>
+  <si>
+    <t>${kingdom}</t>
+  </si>
+  <si>
+    <t>${phylum}</t>
+  </si>
+  <si>
+    <t>${class}</t>
+  </si>
+  <si>
+    <t>${order}</t>
+  </si>
+  <si>
+    <t>${family}</t>
+  </si>
+  <si>
+    <t>${genus}</t>
+  </si>
+  <si>
+    <t>${subgenus}</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>${locality}</t>
+  </si>
+  <si>
+    <t>${depth}</t>
+  </si>
+  <si>
+    <t>${latitude}</t>
+  </si>
+  <si>
+    <t>${longitude}</t>
+  </si>
+  <si>
     <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${scientificName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
-  </si>
-  <si>
-    <t>Galiano Island</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
   </si>
   <si>
     <t>!references.samplingProtocol</t>
@@ -2419,301 +2419,301 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>228</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>229</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>230</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>231</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>232</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>233</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>234</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
         <v>235</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
         <v>236</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>237</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>238</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>239</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>240</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>241</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>242</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
         <v>243</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>244</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>245</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>246</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>247</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
         <v>248</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
         <v>249</v>
       </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>250</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>228</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>251</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>229</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -2836,7 +2836,7 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="EP2" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Nemertea.xlsx
+++ b/data/dataPaper-I-in/arphified/Nemertea.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="267">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>${longitude}</t>
+  </si>
+  <si>
+    <t>${coordinateUncertaintyInMeters}</t>
   </si>
   <si>
     <t>Confidence: ${confidence}</t>
@@ -2668,7 +2671,7 @@
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="CL2" t="s">
         <v>36</v>
@@ -2713,7 +2716,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -2776,13 +2779,13 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DX2" t="s">
         <v>36</v>
@@ -2794,13 +2797,13 @@
         <v>36</v>
       </c>
       <c r="EA2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="EB2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="EC2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="ED2" t="s">
         <v>36</v>
@@ -2809,13 +2812,13 @@
         <v>36</v>
       </c>
       <c r="EF2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="EG2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EH2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EI2" t="s">
         <v>36</v>
@@ -2848,19 +2851,19 @@
         <v>36</v>
       </c>
       <c r="ES2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="ET2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="EU2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="EV2" t="s">
         <v>36</v>
       </c>
       <c r="EW2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="EX2" t="s">
         <v>36</v>
@@ -2891,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Nemertea.xlsx
+++ b/data/dataPaper-I-in/arphified/Nemertea.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="275">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -348,6 +348,15 @@
     <t>order</t>
   </si>
   <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>infraorder</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -720,7 +729,7 @@
     <t>iNaturalist:${iNaturalistTaxonId}</t>
   </si>
   <si>
-    <t>${scientificName}</t>
+    <t>${summary.taxonName}</t>
   </si>
   <si>
     <t>${kingdom}</t>
@@ -735,6 +744,15 @@
     <t>${order}</t>
   </si>
   <si>
+    <t>${suborder}</t>
+  </si>
+  <si>
+    <t>${infraorder}</t>
+  </si>
+  <si>
+    <t>${superfamily}</t>
+  </si>
+  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -744,6 +762,9 @@
     <t>${subgenus}</t>
   </si>
   <si>
+    <t>${summary.Author}</t>
+  </si>
+  <si>
     <t>Galiano Island</t>
   </si>
   <si>
@@ -778,6 +799,9 @@
   </si>
   <si>
     <t>!Date:YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>!Date:HH:mm:ss</t>
   </si>
   <si>
     <t>!Date:YYYY</t>
@@ -1929,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FA2"/>
+  <dimension ref="A1:FD2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2404,19 +2428,28 @@
       <c r="FA1" t="s">
         <v>224</v>
       </c>
+      <c r="FB1" t="s">
+        <v>225</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>226</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -2428,16 +2461,16 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -2452,429 +2485,438 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>235</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>236</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>257</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>258</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>231</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>232</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>233</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>261</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>262</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>263</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>264</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>265</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>266</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>267</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>268</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>236</v>
       </c>
-      <c r="AO2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>242</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>244</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>245</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>246</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>247</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>249</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>251</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>228</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>252</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>253</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>254</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>255</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>256</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>257</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>258</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>259</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>260</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>233</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>36</v>
-      </c>
       <c r="ES2" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="ET2" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="EU2" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="EW2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="EX2" t="s">
-        <v>36</v>
+        <v>271</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="FA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2894,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Nemertea.xlsx
+++ b/data/dataPaper-I-in/arphified/Nemertea.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="268">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -348,15 +348,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
-    <t>infraorder</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -699,9 +690,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>${iNaturalistTaxonId}</t>
-  </si>
-  <si>
     <t>${gbifOccurrenceID}</t>
   </si>
   <si>
@@ -744,15 +732,6 @@
     <t>${order}</t>
   </si>
   <si>
-    <t>${suborder}</t>
-  </si>
-  <si>
-    <t>${infraorder}</t>
-  </si>
-  <si>
-    <t>${superfamily}</t>
-  </si>
-  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -762,7 +741,7 @@
     <t>${subgenus}</t>
   </si>
   <si>
-    <t>${summary.Author}</t>
+    <t>${summary.authority}</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -1953,970 +1932,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:EZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AH1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AO1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AP1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AQ1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AR1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AS1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AT1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AU1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AV1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AW1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AX1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AY1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AZ1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BA1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BB1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BC1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BD1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BE1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BF1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BG1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BH1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BI1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BJ1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BK1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BL1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BM1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BN1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BO1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BP1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BQ1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BR1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BS1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BT1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BU1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BV1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BW1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BX1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BY1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BZ1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CA1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CB1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CC1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CD1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CE1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CF1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CG1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="CH1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CI1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CJ1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CK1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CL1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CM1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CN1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CO1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="CP1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CQ1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CR1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CS1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="CT1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CU1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="CV1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CW1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="CX1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="CY1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CZ1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DA1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DB1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DC1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="DD1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DE1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DF1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="DG1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="DH1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DI1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="DJ1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DK1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DL1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DM1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="DN1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DO1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DP1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="DQ1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DR1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DS1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DT1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="DU1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="DV1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DW1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="DX1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="DY1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DZ1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="EA1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="EB1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EC1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="ED1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="EE1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="EF1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="EG1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="EH1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="EI1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="EJ1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="EK1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="EL1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="EM1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EN1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="EO1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="EP1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="EQ1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="ER1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="ES1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="ET1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="EU1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="EV1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="EW1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="EX1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="EY1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="EZ1" t="s">
-        <v>223</v>
-      </c>
-      <c r="FA1" t="s">
         <v>224</v>
       </c>
-      <c r="FB1" t="s">
+    </row>
+    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>225</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="C2" t="s">
         <v>226</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>228</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>229</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>230</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>231</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>232</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>233</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>234</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>235</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>236</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AO2" t="s">
         <v>237</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>238</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>239</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>240</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>241</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
         <v>242</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>243</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>244</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>245</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>246</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
         <v>247</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
         <v>248</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
         <v>249</v>
       </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>250</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>251</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>227</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
         <v>252</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
         <v>253</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
         <v>254</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DW2" t="s">
         <v>255</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>256</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="EA2" t="s">
         <v>257</v>
       </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="EB2" t="s">
         <v>258</v>
       </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>231</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
         <v>259</v>
       </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EF2" t="s">
         <v>260</v>
       </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EG2" t="s">
         <v>261</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>232</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>262</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="ES2" t="s">
         <v>263</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="ET2" t="s">
         <v>264</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" t="s">
         <v>265</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>266</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>267</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>268</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>236</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>269</v>
-      </c>
       <c r="EW2" t="s">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="EX2" t="s">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>272</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2936,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Nemertea.xlsx
+++ b/data/dataPaper-I-in/arphified/Nemertea.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="266">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -354,9 +354,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>subgenus</t>
-  </si>
-  <si>
     <t>specificEpithet</t>
   </si>
   <si>
@@ -736,9 +733,6 @@
   </si>
   <si>
     <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
   </si>
   <si>
     <t>${summary.authority}</t>
@@ -1932,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -2401,466 +2395,463 @@
       <c r="EY1" t="s">
         <v>223</v>
       </c>
-      <c r="EZ1" t="s">
+    </row>
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>225</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>226</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>227</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>228</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>229</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>230</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>231</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>232</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>233</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>234</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>235</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>236</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>237</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>238</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>239</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
         <v>240</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>241</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
         <v>242</v>
       </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>243</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>244</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>245</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
         <v>246</v>
       </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>247</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CG2" t="s">
         <v>248</v>
       </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
         <v>249</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
         <v>250</v>
       </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
         <v>251</v>
       </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>227</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>252</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>253</v>
       </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>254</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>255</v>
       </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>256</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
         <v>257</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>258</v>
       </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>259</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>231</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>260</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="ER2" t="s">
         <v>261</v>
       </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>232</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>262</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>263</v>
       </c>
-      <c r="ET2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
       <c r="EV2" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="EW2" t="s">
         <v>36</v>
@@ -2869,9 +2860,6 @@
         <v>36</v>
       </c>
       <c r="EY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EZ2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2891,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Nemertea.xlsx
+++ b/data/dataPaper-I-in/arphified/Nemertea.xlsx
@@ -3058,7 +3058,7 @@
         <v>36</v>
       </c>
       <c r="CO2" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP2" t="s">
         <v>36</v>
@@ -3525,7 +3525,7 @@
         <v>36</v>
       </c>
       <c r="CO3" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP3" t="s">
         <v>36</v>
@@ -3992,7 +3992,7 @@
         <v>36</v>
       </c>
       <c r="CO4" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="CP4" t="s">
         <v>36</v>
@@ -4459,7 +4459,7 @@
         <v>36</v>
       </c>
       <c r="CO5" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="CP5" t="s">
         <v>36</v>
@@ -4926,7 +4926,7 @@
         <v>36</v>
       </c>
       <c r="CO6" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="CP6" t="s">
         <v>36</v>
@@ -5393,7 +5393,7 @@
         <v>36</v>
       </c>
       <c r="CO7" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP7" t="s">
         <v>36</v>
@@ -5860,7 +5860,7 @@
         <v>36</v>
       </c>
       <c r="CO8" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP8" t="s">
         <v>36</v>
@@ -6327,7 +6327,7 @@
         <v>36</v>
       </c>
       <c r="CO9" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP9" t="s">
         <v>36</v>
@@ -6794,7 +6794,7 @@
         <v>36</v>
       </c>
       <c r="CO10" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP10" t="s">
         <v>36</v>
@@ -7261,7 +7261,7 @@
         <v>36</v>
       </c>
       <c r="CO11" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP11" t="s">
         <v>36</v>
@@ -7728,7 +7728,7 @@
         <v>36</v>
       </c>
       <c r="CO12" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP12" t="s">
         <v>36</v>
@@ -8195,7 +8195,7 @@
         <v>36</v>
       </c>
       <c r="CO13" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP13" t="s">
         <v>36</v>
@@ -8662,7 +8662,7 @@
         <v>36</v>
       </c>
       <c r="CO14" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP14" t="s">
         <v>36</v>
@@ -9129,7 +9129,7 @@
         <v>36</v>
       </c>
       <c r="CO15" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP15" t="s">
         <v>36</v>
@@ -9596,7 +9596,7 @@
         <v>36</v>
       </c>
       <c r="CO16" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP16" t="s">
         <v>36</v>
@@ -10063,7 +10063,7 @@
         <v>36</v>
       </c>
       <c r="CO17" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP17" t="s">
         <v>36</v>
@@ -10530,7 +10530,7 @@
         <v>36</v>
       </c>
       <c r="CO18" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="CP18" t="s">
         <v>36</v>
@@ -10997,7 +10997,7 @@
         <v>36</v>
       </c>
       <c r="CO19" t="s">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="CP19" t="s">
         <v>36</v>
@@ -11931,7 +11931,7 @@
         <v>36</v>
       </c>
       <c r="CO21" t="s">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="CP21" t="s">
         <v>36</v>
@@ -12865,7 +12865,7 @@
         <v>36</v>
       </c>
       <c r="CO23" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="CP23" t="s">
         <v>36</v>
@@ -13332,7 +13332,7 @@
         <v>36</v>
       </c>
       <c r="CO24" t="s">
-        <v>386</v>
+        <v>36</v>
       </c>
       <c r="CP24" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Nemertea.xlsx
+++ b/data/dataPaper-I-in/arphified/Nemertea.xlsx
@@ -153,7 +153,7 @@
     <t>51284</t>
   </si>
   <si>
-    <t>Neesidae</t>
+    <t>Neesiidae</t>
   </si>
   <si>
     <t>Paranemertes</t>
